--- a/data/original/Til Anders Peter og Frederik 07112024.xlsx
+++ b/data/original/Til Anders Peter og Frederik 07112024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2025-KVIK/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{8C18D355-9FA4-4504-981D-17AA95B36595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81733DB2-166D-4BE0-81F1-94619A95BACF}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{8C18D355-9FA4-4504-981D-17AA95B36595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CC93475-17DF-4D64-B863-B38833791388}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N, TAN, TonGødning, VS" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,6 +353,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -401,7 +407,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -425,6 +431,12 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -712,26 +724,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="81.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6725,7 +6739,7 @@
       <c r="K137" s="10">
         <v>0.24</v>
       </c>
-      <c r="L137" s="10">
+      <c r="L137" s="12">
         <v>7.84</v>
       </c>
       <c r="M137" s="9">
@@ -6813,7 +6827,7 @@
       <c r="K139" s="10">
         <v>0.49</v>
       </c>
-      <c r="L139" s="10">
+      <c r="L139" s="11">
         <v>7.84</v>
       </c>
       <c r="M139" s="9">

--- a/data/original/Til Anders Peter og Frederik 07112024.xlsx
+++ b/data/original/Til Anders Peter og Frederik 07112024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au277187_uni_au_dk/Documents/Documents/GitHub/AU-BCE-EE/Dalby-2025-KVIK/data/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{8C18D355-9FA4-4504-981D-17AA95B36595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CC93475-17DF-4D64-B863-B38833791388}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{8C18D355-9FA4-4504-981D-17AA95B36595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81733DB2-166D-4BE0-81F1-94619A95BACF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="N, TAN, TonGødning, VS" sheetId="1" r:id="rId1"/>
@@ -342,7 +342,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -353,12 +353,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -407,7 +401,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -431,12 +425,6 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -724,28 +712,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="8" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="81.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -6739,7 +6725,7 @@
       <c r="K137" s="10">
         <v>0.24</v>
       </c>
-      <c r="L137" s="12">
+      <c r="L137" s="10">
         <v>7.84</v>
       </c>
       <c r="M137" s="9">
@@ -6827,7 +6813,7 @@
       <c r="K139" s="10">
         <v>0.49</v>
       </c>
-      <c r="L139" s="11">
+      <c r="L139" s="10">
         <v>7.84</v>
       </c>
       <c r="M139" s="9">
